--- a/DSAD_ASSIGNMENT_GROUP_019_Contribution.xlsx
+++ b/DSAD_ASSIGNMENT_GROUP_019_Contribution.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>GroupNo</t>
   </si>
@@ -25,17 +25,29 @@
     <t>%Contribution</t>
   </si>
   <si>
-    <t>Shashi Raj</t>
+    <t>SHASHI RAJ</t>
   </si>
   <si>
     <t>2019hc04088@wilp.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>SAI SATISH BABU N</t>
+  </si>
+  <si>
+    <t>2019hc04089@wilp.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>NARESH S V</t>
+  </si>
+  <si>
+    <t>2019HC04090@wilp.bits-pilani.ac.in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -59,13 +71,20 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF5F6368"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF3C4043"/>
+      <u/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF211D70"/>
+      <name val="Lato"/>
     </font>
   </fonts>
   <fills count="4">
@@ -94,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -110,11 +129,17 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -332,6 +357,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="3" max="3" width="26.0"/>
     <col customWidth="1" min="4" max="4" width="55.14"/>
   </cols>
   <sheetData>
@@ -354,10 +380,10 @@
       <c r="B4" s="4">
         <v>19.0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4">
@@ -368,7 +394,12 @@
       <c r="B5" s="4">
         <v>19.0</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E5" s="4">
         <v>100.0</v>
       </c>
@@ -377,11 +408,20 @@
       <c r="B6" s="4">
         <v>19.0</v>
       </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="E6" s="4">
         <v>100.0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D5"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>